--- a/biology/Médecine/Claude_François_Lallemand/Claude_François_Lallemand.xlsx
+++ b/biology/Médecine/Claude_François_Lallemand/Claude_François_Lallemand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Claude_Fran%C3%A7ois_Lallemand</t>
+          <t>Claude_François_Lallemand</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude François Lallemand, né à Metz le 26 janvier 1790 et mort le 23 juillet 1854 à Marseille, est un chirurgien français pionnier dans l’étude des maladies cérébrales, professeur de clinique chirurgicale à la faculté de médecine de Montpellier et membre de l’Académie nationale de médecine de Paris. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Claude_Fran%C3%A7ois_Lallemand</t>
+          <t>Claude_François_Lallemand</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude François Lallemand naît à Metz, en Moselle dans une famille d'artisans miroitiers. Il commence sa carrière comme élève à l'Hôpital militaire du Fort Moselle à Metz pendant les Guerres napoléoniennes. Il est ainsi envoyé en Espagne en tant que médecin militaire. À son retour, il étudie la médecine et la chirurgie à Paris. Il soutient sa thèse en médecine sur la physiologie du cerveau en 1819.
 Nommé professeur de chirurgie clinique à la faculté de médecine de Montpellier, il commence une brillante carrière à l'Hôpital civil et militaire de Saint-Éloi. De 1820 à 1834, Lallemand publie une série d'observations cliniques et de rapports de pathologie sur les maladies infectieuses des méninges et du cerveau. Ses publications contiennent quelques-unes des observations les plus remarquables sur les maladies infectieuses du cerveau de cette époque. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Claude_Fran%C3%A7ois_Lallemand</t>
+          <t>Claude_François_Lallemand</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pièces relatives à la suspension de M. Lallemand, dans ses fonctions de chirurgien en chef à l'hôpital Saint-Éloi, Impr. de C. Lamort (Metz), 1824, lire en ligne sur Gallica.
 Observations pathologiques propres à éclairer plusieurs points de physiologie, 2e édition, Gabon (Paris), 1825, lire en ligne sur Gallica.
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Claude_Fran%C3%A7ois_Lallemand</t>
+          <t>Claude_François_Lallemand</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,11 +606,13 @@
           <t>Titres et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Chevalier de la Légion d’honneur le 29 octobre 1830[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Chevalier de la Légion d’honneur le 29 octobre 1830
 Membre adjoint correspondant de l'Académie royale de médecine du 5 juillet 1825 au 23 juillet 1854.
-Élu correspondant de Académie des sciences le 26 octobre 1840, membre le 9 juillet 1845 (section de médecine et chirurgie)[2].</t>
+Élu correspondant de Académie des sciences le 26 octobre 1840, membre le 9 juillet 1845 (section de médecine et chirurgie).</t>
         </is>
       </c>
     </row>
